--- a/spliced/falling/2023-03-21_15-38-07/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-38-07/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.9287641048431402</v>
+        <v>-0.3135113716125494</v>
       </c>
       <c r="D2" t="n">
-        <v>1.777486205101013</v>
+        <v>1.868308603763581</v>
       </c>
       <c r="E2" t="n">
-        <v>2.260794490575791</v>
+        <v>2.184598565101624</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1010981947183609</v>
+        <v>-0.0467311926186084</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0174096599221229</v>
+        <v>0.0064140851609408</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0068722339347004</v>
+        <v>-0.0200058370828628</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.95519518852234</v>
+        <v>-0.9287641048431402</v>
       </c>
       <c r="D3" t="n">
-        <v>1.322730630636214</v>
+        <v>1.777486205101013</v>
       </c>
       <c r="E3" t="n">
-        <v>3.281712114810947</v>
+        <v>2.260794490575791</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07284568250179289</v>
+        <v>-0.1010981947183609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8498662710189819</v>
+        <v>-0.0174096599221229</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07269296050071709</v>
+        <v>0.0068722339347004</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.435981750488281</v>
+        <v>-1.95519518852234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6166191995143889</v>
+        <v>1.322730630636214</v>
       </c>
       <c r="E4" t="n">
-        <v>5.611798405647279</v>
+        <v>3.281712114810947</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.371697902679443</v>
+        <v>0.07284568250179289</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2721404731273651</v>
+        <v>0.8498662710189819</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4282165467739105</v>
+        <v>0.07269296050071709</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.7195005416870192</v>
+        <v>-2.435981750488281</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9086291790008577</v>
+        <v>0.6166191995143889</v>
       </c>
       <c r="E5" t="n">
-        <v>3.197041034698503</v>
+        <v>5.611798405647279</v>
       </c>
       <c r="F5" t="n">
-        <v>1.862528085708618</v>
+        <v>-1.371697902679443</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6116288304328918</v>
+        <v>0.2721404731273651</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1165225431323051</v>
+        <v>0.4282165467739105</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.084934711456308</v>
+        <v>-0.7195005416870192</v>
       </c>
       <c r="D6" t="n">
-        <v>2.421984702348714</v>
+        <v>0.9086291790008577</v>
       </c>
       <c r="E6" t="n">
-        <v>10.81555610895159</v>
+        <v>3.197041034698503</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1780672222375869</v>
+        <v>1.862528085708618</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.1233811378479</v>
+        <v>-0.6116288304328918</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2745839357376098</v>
+        <v>-0.1165225431323051</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.58544564247131</v>
+        <v>-4.084934711456308</v>
       </c>
       <c r="D7" t="n">
-        <v>2.339941740036011</v>
+        <v>2.421984702348714</v>
       </c>
       <c r="E7" t="n">
-        <v>2.727071173489081</v>
+        <v>10.81555610895159</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8069530129432678</v>
+        <v>0.1780672222375869</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.977384388446808</v>
+        <v>-1.1233811378479</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.019839525222778</v>
+        <v>0.2745839357376098</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.705716729164141</v>
+        <v>-1.58544564247131</v>
       </c>
       <c r="D8" t="n">
-        <v>2.451636523008347</v>
+        <v>2.339941740036011</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.786785509437326</v>
+        <v>2.727071173489081</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.010829210281372</v>
+        <v>-0.8069530129432678</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7066183686256409</v>
+        <v>-0.977384388446808</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.013883590698242</v>
+        <v>-1.019839525222778</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.775958299636823</v>
+        <v>6.705716729164141</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1087797880172783</v>
+        <v>2.451636523008347</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.716480135917668</v>
+        <v>-1.786785509437326</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.994003295898437</v>
+        <v>-1.010829210281372</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.562789916992188</v>
+        <v>0.7066183686256409</v>
       </c>
       <c r="H9" t="n">
-        <v>2.036166667938232</v>
+        <v>-1.013883590698242</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-5.608189284801471</v>
+        <v>1.775958299636823</v>
       </c>
       <c r="D10" t="n">
-        <v>3.048999667167701</v>
+        <v>-0.1087797880172783</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.210317611694313</v>
+        <v>-4.716480135917668</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.309515237808228</v>
+        <v>-2.994003295898437</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.9964739084243774</v>
+        <v>-9.562789916992188</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.302059292793274</v>
+        <v>2.036166667938232</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.4491417407989275</v>
+        <v>-5.608189284801471</v>
       </c>
       <c r="D11" t="n">
-        <v>9.55259764939543</v>
+        <v>3.048999667167701</v>
       </c>
       <c r="E11" t="n">
-        <v>3.015977501869205</v>
+        <v>-3.210317611694313</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.96409809589386</v>
+        <v>-3.309515237808228</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.817005157470703</v>
+        <v>-0.9964739084243774</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.337794899940491</v>
+        <v>-1.302059292793274</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.952256441116321</v>
+        <v>-0.4491417407989275</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07992215082050025</v>
+        <v>9.55259764939543</v>
       </c>
       <c r="E12" t="n">
-        <v>3.550769448280326</v>
+        <v>3.015977501869205</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1733330190181732</v>
+        <v>-0.96409809589386</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3347541689872741</v>
+        <v>-2.817005157470703</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2535090744495392</v>
+        <v>-1.337794899940491</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.770977020263648</v>
+        <v>4.952256441116321</v>
       </c>
       <c r="D13" t="n">
-        <v>1.765734553337105</v>
+        <v>0.07992215082050025</v>
       </c>
       <c r="E13" t="n">
-        <v>1.244035243988039</v>
+        <v>3.550769448280326</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2247984111309051</v>
+        <v>0.1733330190181732</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4734205603599548</v>
+        <v>-0.3347541689872741</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3132211565971374</v>
+        <v>0.2535090744495392</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-3.673758745193484</v>
+        <v>1.770977020263648</v>
       </c>
       <c r="D14" t="n">
-        <v>3.663176700472833</v>
+        <v>1.765734553337105</v>
       </c>
       <c r="E14" t="n">
-        <v>1.593807518482209</v>
+        <v>1.244035243988039</v>
       </c>
       <c r="F14" t="n">
-        <v>1.459051609039307</v>
+        <v>-0.2247984111309051</v>
       </c>
       <c r="G14" t="n">
-        <v>1.565494894981384</v>
+        <v>0.4734205603599548</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.7967209815979004</v>
+        <v>-0.3132211565971374</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-2.581178307533261</v>
+        <v>-3.673758745193484</v>
       </c>
       <c r="D15" t="n">
-        <v>3.702123820781707</v>
+        <v>3.663176700472833</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.508966445922855</v>
+        <v>1.593807518482209</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2709187269210815</v>
+        <v>1.459051609039307</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9358455538749696</v>
+        <v>1.565494894981384</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.3923282027244568</v>
+        <v>-0.7967209815979004</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.404204189777373</v>
+        <v>-2.581178307533261</v>
       </c>
       <c r="D16" t="n">
-        <v>2.937668949365614</v>
+        <v>3.702123820781707</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6700982861220792</v>
+        <v>-1.508966445922855</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1609629988670349</v>
+        <v>0.2709187269210815</v>
       </c>
       <c r="G16" t="n">
-        <v>1.449430465698242</v>
+        <v>0.9358455538749696</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1336267739534378</v>
+        <v>-0.3923282027244568</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.4647068977355933</v>
+        <v>-1.404204189777373</v>
       </c>
       <c r="D17" t="n">
-        <v>2.649285078048706</v>
+        <v>2.937668949365614</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7614018470048918</v>
+        <v>-0.6700982861220792</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2974913716316223</v>
+        <v>0.1609629988670349</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1624901592731475</v>
+        <v>1.449430465698242</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1886046379804611</v>
+        <v>-0.1336267739534378</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.3691325187683139</v>
+        <v>-0.4647068977355933</v>
       </c>
       <c r="D18" t="n">
-        <v>2.143613040447231</v>
+        <v>2.649285078048706</v>
       </c>
       <c r="E18" t="n">
-        <v>1.028705216944218</v>
+        <v>0.7614018470048918</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0355829000473022</v>
+        <v>0.2974913716316223</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.517389297485352</v>
+        <v>-0.1624901592731475</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4433354437351227</v>
+        <v>0.1886046379804611</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.8619370460510254</v>
+        <v>-0.3691325187683139</v>
       </c>
       <c r="D19" t="n">
-        <v>1.451581001281739</v>
+        <v>2.143613040447231</v>
       </c>
       <c r="E19" t="n">
-        <v>1.022640809416771</v>
+        <v>1.028705216944218</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0959058403968811</v>
+        <v>-0.0355829000473022</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4607451260089874</v>
+        <v>-1.517389297485352</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2782491147518158</v>
+        <v>0.4433354437351227</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1582020521163923</v>
+        <v>-0.8619370460510254</v>
       </c>
       <c r="D20" t="n">
-        <v>2.486986517906188</v>
+        <v>1.451581001281739</v>
       </c>
       <c r="E20" t="n">
-        <v>1.129563391208648</v>
+        <v>1.022640809416771</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1259909570217132</v>
+        <v>0.0959058403968811</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1007927656173706</v>
+        <v>0.4607451260089874</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0125227374956011</v>
+        <v>-0.2782491147518158</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.2655735015869125</v>
+        <v>0.1582020521163923</v>
       </c>
       <c r="D21" t="n">
-        <v>2.233672142028808</v>
+        <v>2.486986517906188</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9439086914062514</v>
+        <v>1.129563391208648</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1461495161056518</v>
+        <v>0.1259909570217132</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1336267739534378</v>
+        <v>0.1007927656173706</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1892155110836029</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.07992589473724532</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.95888604223728</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.25704461336136</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.117286130785942</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.7583891749382019</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.07605272531509399</v>
+        <v>0.0125227374956011</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-38-07/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-38-07/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.3135113716125494</v>
+        <v>1.19674801826477</v>
       </c>
       <c r="D2" t="n">
-        <v>1.868308603763581</v>
+        <v>1.663910716772079</v>
       </c>
       <c r="E2" t="n">
-        <v>2.184598565101624</v>
+        <v>2.702408194541931</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0467311926186084</v>
+        <v>-0.1724167168140411</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0064140851609408</v>
+        <v>-0.3089450895786285</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0200058370828628</v>
+        <v>0.9990701079368592</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.9287641048431402</v>
+        <v>-0.4646213054656981</v>
       </c>
       <c r="D3" t="n">
-        <v>1.777486205101013</v>
+        <v>2.042550325393677</v>
       </c>
       <c r="E3" t="n">
-        <v>2.260794490575791</v>
+        <v>2.406269252300262</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1010981947183609</v>
+        <v>-0.1458440721035003</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0174096599221229</v>
+        <v>-0.0731511116027832</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0068722339347004</v>
+        <v>-0.1902845203876495</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.95519518852234</v>
+        <v>-0.3934619426727292</v>
       </c>
       <c r="D4" t="n">
-        <v>1.322730630636214</v>
+        <v>1.991465017199517</v>
       </c>
       <c r="E4" t="n">
-        <v>3.281712114810947</v>
+        <v>1.958218067884445</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07284568250179289</v>
+        <v>0.0277943685650825</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8498662710189819</v>
+        <v>-0.0499382354319095</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07269296050071709</v>
+        <v>0.04505131021142</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.435981750488281</v>
+        <v>-0.06526184082031269</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6166191995143889</v>
+        <v>1.843156695365906</v>
       </c>
       <c r="E5" t="n">
-        <v>5.611798405647279</v>
+        <v>2.04642915725708</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.371697902679443</v>
+        <v>-0.042302418500185</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2721404731273651</v>
+        <v>-0.052381694316864</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4282165467739105</v>
+        <v>-0.0262672062963247</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.7195005416870192</v>
+        <v>-0.2364732027053833</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9086291790008577</v>
+        <v>1.819270551204681</v>
       </c>
       <c r="E6" t="n">
-        <v>3.197041034698503</v>
+        <v>2.093152940273285</v>
       </c>
       <c r="F6" t="n">
-        <v>1.862528085708618</v>
+        <v>0.07803803682327271</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6116288304328918</v>
+        <v>-0.0073303831741213</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1165225431323051</v>
+        <v>0.0215329993516206</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.084934711456308</v>
+        <v>-0.3396859169006348</v>
       </c>
       <c r="D7" t="n">
-        <v>2.421984702348714</v>
+        <v>1.832332909107209</v>
       </c>
       <c r="E7" t="n">
-        <v>10.81555610895159</v>
+        <v>2.310090780258179</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1780672222375869</v>
+        <v>-0.0259617734700441</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.1233811378479</v>
+        <v>-0.0493273697793483</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2745839357376098</v>
+        <v>-0.0320704244077205</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.58544564247131</v>
+        <v>-0.2427999973297116</v>
       </c>
       <c r="D8" t="n">
-        <v>2.339941740036011</v>
+        <v>1.836586102843285</v>
       </c>
       <c r="E8" t="n">
-        <v>2.727071173489081</v>
+        <v>2.258781224489212</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8069530129432678</v>
+        <v>-0.117286130785942</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.977384388446808</v>
+        <v>-0.0560468845069408</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.019839525222778</v>
+        <v>-0.0174096599221229</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.705716729164141</v>
+        <v>-0.3135113716125494</v>
       </c>
       <c r="D9" t="n">
-        <v>2.451636523008347</v>
+        <v>1.868308603763581</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.786785509437326</v>
+        <v>2.184598565101624</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.010829210281372</v>
+        <v>-0.0467311926186084</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7066183686256409</v>
+        <v>0.0064140851609408</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.013883590698242</v>
+        <v>-0.0200058370828628</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.775958299636823</v>
+        <v>-0.9287641048431402</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1087797880172783</v>
+        <v>1.777486205101013</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.716480135917668</v>
+        <v>2.260794490575791</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.994003295898437</v>
+        <v>-0.1010981947183609</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.562789916992188</v>
+        <v>-0.0174096599221229</v>
       </c>
       <c r="H10" t="n">
-        <v>2.036166667938232</v>
+        <v>0.0068722339347004</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-5.608189284801471</v>
+        <v>-1.95519518852234</v>
       </c>
       <c r="D11" t="n">
-        <v>3.048999667167701</v>
+        <v>1.322730630636214</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.210317611694313</v>
+        <v>3.281712114810947</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.309515237808228</v>
+        <v>0.07284568250179289</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.9964739084243774</v>
+        <v>0.8498662710189819</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.302059292793274</v>
+        <v>0.07269296050071709</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.4491417407989275</v>
+        <v>-2.435981750488281</v>
       </c>
       <c r="D12" t="n">
-        <v>9.55259764939543</v>
+        <v>0.6166191995143889</v>
       </c>
       <c r="E12" t="n">
-        <v>3.015977501869205</v>
+        <v>5.611798405647279</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.96409809589386</v>
+        <v>-1.371697902679443</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.817005157470703</v>
+        <v>0.2721404731273651</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.337794899940491</v>
+        <v>0.4282165467739105</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.952256441116321</v>
+        <v>-0.7195005416870192</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07992215082050025</v>
+        <v>0.9086291790008577</v>
       </c>
       <c r="E13" t="n">
-        <v>3.550769448280326</v>
+        <v>3.197041034698503</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1733330190181732</v>
+        <v>1.862528085708618</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3347541689872741</v>
+        <v>-0.6116288304328918</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2535090744495392</v>
+        <v>-0.1165225431323051</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.770977020263648</v>
+        <v>-4.084934711456308</v>
       </c>
       <c r="D14" t="n">
-        <v>1.765734553337105</v>
+        <v>2.421984702348714</v>
       </c>
       <c r="E14" t="n">
-        <v>1.244035243988039</v>
+        <v>10.81555610895159</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2247984111309051</v>
+        <v>0.1780672222375869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4734205603599548</v>
+        <v>-1.1233811378479</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3132211565971374</v>
+        <v>0.2745839357376098</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-3.673758745193484</v>
+        <v>-1.58544564247131</v>
       </c>
       <c r="D15" t="n">
-        <v>3.663176700472833</v>
+        <v>2.339941740036011</v>
       </c>
       <c r="E15" t="n">
-        <v>1.593807518482209</v>
+        <v>2.727071173489081</v>
       </c>
       <c r="F15" t="n">
-        <v>1.459051609039307</v>
+        <v>-0.8069530129432678</v>
       </c>
       <c r="G15" t="n">
-        <v>1.565494894981384</v>
+        <v>-0.977384388446808</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.7967209815979004</v>
+        <v>-1.019839525222778</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.581178307533261</v>
+        <v>6.705716729164141</v>
       </c>
       <c r="D16" t="n">
-        <v>3.702123820781707</v>
+        <v>2.451636523008347</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.508966445922855</v>
+        <v>-1.786785509437326</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2709187269210815</v>
+        <v>-1.010829210281372</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9358455538749696</v>
+        <v>0.7066183686256409</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3923282027244568</v>
+        <v>-1.013883590698242</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.404204189777373</v>
+        <v>1.775958299636823</v>
       </c>
       <c r="D17" t="n">
-        <v>2.937668949365614</v>
+        <v>-0.1087797880172783</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6700982861220792</v>
+        <v>-4.716480135917668</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1609629988670349</v>
+        <v>-2.994003295898437</v>
       </c>
       <c r="G17" t="n">
-        <v>1.449430465698242</v>
+        <v>-9.562789916992188</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1336267739534378</v>
+        <v>2.036166667938232</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4647068977355933</v>
+        <v>-5.608189284801471</v>
       </c>
       <c r="D18" t="n">
-        <v>2.649285078048706</v>
+        <v>3.048999667167701</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7614018470048918</v>
+        <v>-3.210317611694313</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2974913716316223</v>
+        <v>-3.309515237808228</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1624901592731475</v>
+        <v>-0.9964739084243774</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1886046379804611</v>
+        <v>-1.302059292793274</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.3691325187683139</v>
+        <v>-0.4491417407989275</v>
       </c>
       <c r="D19" t="n">
-        <v>2.143613040447231</v>
+        <v>9.55259764939543</v>
       </c>
       <c r="E19" t="n">
-        <v>1.028705216944218</v>
+        <v>3.015977501869205</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0355829000473022</v>
+        <v>-0.96409809589386</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.517389297485352</v>
+        <v>-2.817005157470703</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4433354437351227</v>
+        <v>-1.337794899940491</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.8619370460510254</v>
+        <v>4.952256441116321</v>
       </c>
       <c r="D20" t="n">
-        <v>1.451581001281739</v>
+        <v>0.07992215082050025</v>
       </c>
       <c r="E20" t="n">
-        <v>1.022640809416771</v>
+        <v>3.550769448280326</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0959058403968811</v>
+        <v>0.1733330190181732</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4607451260089874</v>
+        <v>-0.3347541689872741</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2782491147518158</v>
+        <v>0.2535090744495392</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>1.770977020263648</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.765734553337105</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.244035243988039</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.2247984111309051</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4734205603599548</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3132211565971374</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.673758745193484</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.663176700472833</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.593807518482209</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.459051609039307</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.565494894981384</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.7967209815979004</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.581178307533261</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.702123820781707</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.508966445922855</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2709187269210815</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9358455538749696</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.3923282027244568</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.404204189777373</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.937668949365614</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.6700982861220792</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1609629988670349</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.449430465698242</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.1336267739534378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.4647068977355933</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.649285078048706</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7614018470048918</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2974913716316223</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.1624901592731475</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1886046379804611</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3691325187683139</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.143613040447231</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.028705216944218</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0355829000473022</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1.517389297485352</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4433354437351227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.8619370460510254</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.451581001281739</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.022640809416771</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0959058403968811</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.4607451260089874</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.2782491147518158</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>0.1582020521163923</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>2.486986517906188</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E28" t="n">
         <v>1.129563391208648</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F28" t="n">
         <v>0.1259909570217132</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G28" t="n">
         <v>0.1007927656173706</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>0.0125227374956011</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.2655735015869125</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.233672142028808</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9439086914062514</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1461495161056518</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1336267739534378</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.1892155110836029</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.07992589473724532</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.95888604223728</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.25704461336136</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.117286130785942</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7583891749382019</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.07605272531509399</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3567421436309829</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.357963830232623</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.160924613475799</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1061378344893455</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2086104750633239</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.1314887404441833</v>
       </c>
     </row>
   </sheetData>
